--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>958246.2447672165</v>
+        <v>877683.9984657008</v>
       </c>
     </row>
     <row r="8">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>316.578988699947</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>284.3847470051799</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>76.60886799452511</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>109.4422623037125</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>340.7960363346715</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>144.0731271501067</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>287.7755534974526</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>193.5951683370114</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>97.34004921506703</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>275.4666232302528</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722622</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>100.8081625961675</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1061191620009</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.7363362784606</v>
+        <v>69.79870939975817</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>106.185023436564</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.287249111316</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>123.0585888825488</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>106.7061843359092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>259.3061888821581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>123.4027026842202</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>179.5232416718492</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>194.6415874910452</v>
       </c>
       <c r="U31" t="n">
-        <v>139.7568420184986</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>73.00837259454025</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>121.0690913161831</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>5.921548633408947</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.7616571968937</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.36162634165357</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>87.92246340195713</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.344242153658</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>1272.344242153658</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.344242153658</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>912.6300861343403</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>494.6662780325272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>520.9088977430002</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430002</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721084</v>
+        <v>777.3160057777998</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316967</v>
+        <v>777.3160057777998</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097701</v>
+        <v>419.0503071710493</v>
       </c>
       <c r="E5" t="n">
         <v>74.81188663097701</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362301</v>
+        <v>777.3160057777998</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036444</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484592</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544181</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548714</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548714</v>
+        <v>2282.963748902395</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548714</v>
+        <v>1951.900861558824</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548714</v>
+        <v>1951.900861558824</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548714</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548714</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.821920859872</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417903</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>629.8057021710126</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>629.8057021710126</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>340.388532134052</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>340.388532134052</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.388532134052</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>877.9627984403695</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>1198.298117970071</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>1542.818773607689</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>1822.358838826386</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1086.094730170465</v>
       </c>
       <c r="U13" t="n">
-        <v>719.5841063076132</v>
+        <v>796.9660913840228</v>
       </c>
       <c r="V13" t="n">
-        <v>464.8996181017263</v>
+        <v>796.9660913840228</v>
       </c>
       <c r="W13" t="n">
-        <v>464.8996181017263</v>
+        <v>796.9660913840228</v>
       </c>
       <c r="X13" t="n">
-        <v>464.8996181017263</v>
+        <v>796.9660913840228</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>479.098332261396</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.7300455988212</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y16" t="n">
-        <v>671.7300455988212</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.49815909844</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>2745.388427942953</v>
+        <v>2643.27790606805</v>
       </c>
       <c r="L18" t="n">
-        <v>3359.285497699841</v>
+        <v>3257.174975824938</v>
       </c>
       <c r="M18" t="n">
-        <v>3359.285497699841</v>
+        <v>3257.174975824938</v>
       </c>
       <c r="N18" t="n">
-        <v>4045.44453396283</v>
+        <v>3601.695631462556</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.44453396283</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698577</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805453</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>2459.855719156278</v>
       </c>
       <c r="L21" t="n">
-        <v>1009.893253135417</v>
+        <v>2503.464857406062</v>
       </c>
       <c r="M21" t="n">
-        <v>1778.261399527878</v>
+        <v>3271.833003798524</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>3601.695631462556</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.2811958984813</v>
+        <v>688.78598135451</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>519.8497984266031</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>519.8497984266031</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>371.93670484421</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>371.93670484421</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X22" t="n">
-        <v>877.929660728721</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.929660728721</v>
+        <v>870.4344461847497</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028556</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,25 +6011,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527472</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.000326757765</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O24" t="n">
-        <v>2328.464088060424</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>2501.346796321636</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.792923427374</v>
+        <v>2748.1119242281</v>
       </c>
       <c r="M27" t="n">
-        <v>1771.161069819836</v>
+        <v>3386.979233447483</v>
       </c>
       <c r="N27" t="n">
-        <v>2181.546601581525</v>
+        <v>4191.390811711633</v>
       </c>
       <c r="O27" t="n">
-        <v>2430.300015665487</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>3898.869857725291</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>3898.869857725291</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3898.869857725291</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3898.869857725291</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3751.979910227381</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3583.804588547201</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754431</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>4119.662436868821</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>3898.869857725291</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L30" t="n">
-        <v>263.5382936126482</v>
+        <v>2948.12508402977</v>
       </c>
       <c r="M30" t="n">
-        <v>1031.90644000511</v>
+        <v>3716.493230422231</v>
       </c>
       <c r="N30" t="n">
-        <v>1836.31801826926</v>
+        <v>4061.013886059849</v>
       </c>
       <c r="O30" t="n">
-        <v>2505.78177957192</v>
+        <v>4340.553951278546</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>4464.326898797477</v>
       </c>
       <c r="U31" t="n">
-        <v>822.9672145333731</v>
+        <v>4175.198260011035</v>
       </c>
       <c r="V31" t="n">
-        <v>568.2827263274862</v>
+        <v>3920.513771805148</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8655562905255</v>
+        <v>3920.513771805148</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>3920.513771805148</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>3920.513771805148</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>981.479899919968</v>
       </c>
       <c r="M33" t="n">
-        <v>1645.803509761998</v>
+        <v>1749.848046312429</v>
       </c>
       <c r="N33" t="n">
-        <v>1645.803509761998</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6886,22 +6886,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>936.1217907834367</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,34 +6932,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6980,7 +6980,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250802</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K36" t="n">
-        <v>2901.872038843199</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L36" t="n">
-        <v>3131.835144711548</v>
+        <v>2975.351533811302</v>
       </c>
       <c r="M36" t="n">
-        <v>3452.17046424125</v>
+        <v>3295.686853341004</v>
       </c>
       <c r="N36" t="n">
-        <v>3796.691119878868</v>
+        <v>4100.098431605154</v>
       </c>
       <c r="O36" t="n">
-        <v>4045.44453396283</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698577</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>3843.400005177273</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>3843.400005177273</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>3843.400005177273</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>3843.400005177273</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>3843.400005177273</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>578.3080734880472</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="N39" t="n">
-        <v>2612.943493278838</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>3885.755254472818</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>4543.878097235702</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>4254.460927198741</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>4254.460927198741</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>4033.668348055211</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695368</v>
+        <v>698.9859206278418</v>
       </c>
       <c r="M42" t="n">
-        <v>1478.300838660644</v>
+        <v>1019.321240157544</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.163466324677</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,37 +7640,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>385.3661712812278</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>999.2632410381165</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M45" t="n">
-        <v>1767.631387430578</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N45" t="n">
-        <v>2112.152043068196</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O45" t="n">
-        <v>2360.905457152158</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>731.6365520183392</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C46" t="n">
-        <v>562.7003690904323</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1210.185691380569</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1210.185691380569</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>955.5012031746817</v>
       </c>
       <c r="X46" t="n">
-        <v>954.8146123150548</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0220331715246</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,16 +8781,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>304.1240085372005</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>442.7349347280635</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6040143756159</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>334.896137312547</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>209.464191076085</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>228.6738252609035</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>231.9657991952066</v>
       </c>
       <c r="M42" t="n">
-        <v>296.510446475905</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.7393984622218</v>
       </c>
       <c r="U13" t="n">
-        <v>44.13123323657649</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.84831707363415</v>
+        <v>148.7859439523366</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>180.3379749000271</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.43497958082882</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>119.0034710531279</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>26.93116351641925</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>25.51112568331592</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>72.6144016519788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>26.90597356734406</v>
       </c>
       <c r="U31" t="n">
-        <v>146.4805103800788</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25081,10 +25081,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>148.539188463849</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>25.36487133038611</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>246.2160946904191</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>31.67230544967546</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.4703538402837</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>133.6250976564321</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.948567219</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672193</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759159</v>
+        <v>787.7936905758474</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759159</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759184</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759443</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905759826</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905759512</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905759236</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758633</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905759339</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758417</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205397</v>
+        <v>-134526.6363205394</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940051</v>
+        <v>455441.2428940048</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940051</v>
+        <v>455441.242894005</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103004</v>
+        <v>27262.79245103046</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279271</v>
+        <v>552422.828927927</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279272</v>
+        <v>552422.8289279268</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279268</v>
+        <v>552422.8289279267</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279268</v>
+        <v>552422.828927927</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353336</v>
+        <v>375999.6097353339</v>
       </c>
       <c r="K6" t="n">
-        <v>552422.8289279268</v>
+        <v>552422.828927927</v>
       </c>
       <c r="L6" t="n">
         <v>552422.8289279268</v>
       </c>
       <c r="M6" t="n">
-        <v>417621.8136940894</v>
+        <v>417621.8136940892</v>
       </c>
       <c r="N6" t="n">
         <v>552422.828927927</v>
       </c>
       <c r="O6" t="n">
+        <v>552422.828927927</v>
+      </c>
+      <c r="P6" t="n">
         <v>552422.8289279267</v>
-      </c>
-      <c r="P6" t="n">
-        <v>552422.8289279268</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.28530774084281e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>90.29705704176439</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.53802575917729</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>69.82509465204406</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923383</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>19.88721985928464</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>245.2407793169705</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>41.13433373759028</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>108.0645161737213</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.37316471551389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>66.90748812323039</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>57.62899917127788</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>188.9418250269107</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>11.05637510633818</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>-1.303787853623013e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942452</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>218.0578460103735</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,22 +31853,22 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>331.8073893088567</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>143.3647573196099</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,25 +32324,25 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>345.0892733589602</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>274.5684716790595</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32786,25 +32786,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>453.4287204721209</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>323.0126678614004</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32950,7 +32950,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
@@ -33035,13 +33035,13 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>66.53017790310247</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>343.3388808776675</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>252.9559486307125</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,22 +33500,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>203.9579359408715</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>295.8588146114938</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>278.4799167015756</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33746,19 +33746,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>315.3850941010719</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33913,7 +33913,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>164.4358785485904</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>255.3704499243454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730095</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>450.3438115339585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35501,13 +35501,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>511.2174234687252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>193.2530095289825</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>775.9295081260765</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>269.9885553578295</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,16 +35972,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>693.0899356191804</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>506.8544372026445</v>
+        <v>44.04963459574176</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>801.4293827323411</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>507.5010290870073</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>645.3205143630132</v>
       </c>
       <c r="N27" t="n">
-        <v>414.5308401633227</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>204.7845010977933</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>118.9815412163823</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>436.2439014644565</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>153.2625701670493</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>405.1037147397952</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37394,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>172.7888496566275</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>70.9098112962108</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>561.8683986589164</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>481.2235041512309</v>
       </c>
       <c r="M42" t="n">
-        <v>606.9348235263712</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>291.05967658681</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>603.3711121845656</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3248696.141639066</v>
+        <v>3324225.811303872</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>877683.9984657008</v>
+        <v>687188.4205003544</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8468878.82831051</v>
+        <v>8468878.828310512</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>284.3847470051799</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>13.90912412328831</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.60886799452511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.8990189732829</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>340.7960363346715</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>98.89509145214025</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>144.0731271501067</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>84.83883374906087</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>193.5951683370114</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>322.9413409399498</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>66.94614978640935</v>
       </c>
       <c r="W10" t="n">
-        <v>275.4666232302528</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>100.8081625961675</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>176.8688121773846</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.60579433720712</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.79870939975817</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>106.185023436564</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>88.01728184017952</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.0585888825488</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2287,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>81.6891374318834</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>259.3061888821581</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>123.4027026842202</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>95.24383643285914</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>194.6415874910452</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>79.98934679131069</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>139.3027454994314</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>73.00837259454025</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>121.0690913161831</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>211.9872385192945</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3667,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>5.921548633408947</v>
+        <v>238.5604723772492</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.7616571968937</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>147.1649612052635</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>22.10100382327489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>87.92246340195713</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>912.6300861343403</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>494.6662780325272</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2628.070781222162</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2374.308995860253</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2043.246108516683</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4437,19 +4439,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.0740493317991</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C4" t="n">
-        <v>289.0740493317991</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>289.0740493317991</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.7225141620388</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.3160057777998</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>777.3160057777998</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0503071710493</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628376</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284805</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014691</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.3160057777998</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>582.6005729437002</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W7" t="n">
-        <v>582.6005729437002</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X7" t="n">
-        <v>582.6005729437002</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191.835263233623</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2282.963748902395</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1951.900861558824</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.900861558824</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.435103297744</v>
+        <v>1314.574431516108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1578.435103297744</v>
+        <v>924.4350995402963</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,7 +5065,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0657286834809</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L12" t="n">
-        <v>877.9627984403695</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.298117970071</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>1542.818773607689</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
-        <v>1822.358838826386</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1086.094730170465</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>796.9660913840228</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>796.9660913840228</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>796.9660913840228</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>796.9660913840228</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M15" t="n">
-        <v>1672.759814717971</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N15" t="n">
-        <v>2440.930027762787</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.3743239205529</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="C16" t="n">
-        <v>542.438140992646</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8780707889955</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.3743239205529</v>
+        <v>588.5027791527954</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5500,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K18" t="n">
-        <v>2643.27790606805</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="L18" t="n">
-        <v>3257.174975824938</v>
+        <v>2989.886306020688</v>
       </c>
       <c r="M18" t="n">
-        <v>3257.174975824938</v>
+        <v>3758.254452413149</v>
       </c>
       <c r="N18" t="n">
-        <v>3601.695631462556</v>
+        <v>4562.6660306773</v>
       </c>
       <c r="O18" t="n">
-        <v>4271.159392765216</v>
+        <v>4562.6660306773</v>
       </c>
       <c r="P18" t="n">
-        <v>4791.460014500963</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2225136306376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>1080.663557604408</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>1080.663557604408</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>859.8709784608774</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K21" t="n">
-        <v>2459.855719156278</v>
+        <v>2459.855719156279</v>
       </c>
       <c r="L21" t="n">
-        <v>2503.464857406062</v>
+        <v>2689.818825024628</v>
       </c>
       <c r="M21" t="n">
-        <v>3271.833003798524</v>
+        <v>3458.18697141709</v>
       </c>
       <c r="N21" t="n">
-        <v>3601.695631462556</v>
+        <v>3802.707627054708</v>
       </c>
       <c r="O21" t="n">
-        <v>4271.159392765216</v>
+        <v>4472.171388357368</v>
       </c>
       <c r="P21" t="n">
-        <v>4791.460014500963</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>688.78598135451</v>
+        <v>484.4545387878463</v>
       </c>
       <c r="C22" t="n">
-        <v>519.8497984266031</v>
+        <v>484.4545387878463</v>
       </c>
       <c r="D22" t="n">
-        <v>519.8497984266031</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E22" t="n">
-        <v>371.93670484421</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>371.93670484421</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="X22" t="n">
-        <v>870.4344461847497</v>
+        <v>705.2471179313765</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.4344461847497</v>
+        <v>484.4545387878463</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028556</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>772.8730769161741</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.284655180325</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>1826.038069264287</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>326.6213191924219</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>326.6213191924219</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>326.6213191924219</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>326.6213191924219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>179.7313716945115</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1236.990827242591</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V25" t="n">
-        <v>982.3063390367042</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W25" t="n">
-        <v>692.8891689997437</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="X25" t="n">
-        <v>464.8996181017263</v>
+        <v>326.6213191924219</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>326.6213191924219</v>
       </c>
     </row>
     <row r="26">
@@ -6209,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>2501.346796321636</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L27" t="n">
-        <v>2748.1119242281</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M27" t="n">
-        <v>3386.979233447483</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N27" t="n">
-        <v>4191.390811711633</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O27" t="n">
-        <v>4860.854573014292</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3898.869857725291</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C28" t="n">
-        <v>3898.869857725291</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>3898.869857725291</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>3898.869857725291</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>3751.979910227381</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>3583.804588547201</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.069157803799</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.651987766838</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="X28" t="n">
-        <v>4119.662436868821</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="Y28" t="n">
-        <v>3898.869857725291</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>2745.388427942954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>2948.12508402977</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M30" t="n">
-        <v>3716.493230422231</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N30" t="n">
-        <v>4061.013886059849</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O30" t="n">
-        <v>4340.553951278546</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>4860.854573014293</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3738.865306974908</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C31" t="n">
-        <v>3738.865306974908</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D31" t="n">
-        <v>3738.865306974908</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E31" t="n">
-        <v>3738.865306974908</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974908</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4464.326898797477</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4175.198260011035</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>3920.513771805148</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>3920.513771805148</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X31" t="n">
-        <v>3920.513771805148</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.513771805148</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,19 +6785,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>981.479899919968</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1749.848046312429</v>
+        <v>1540.194529922532</v>
       </c>
       <c r="N33" t="n">
-        <v>2079.710673976462</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.0201325405893</v>
+        <v>496.3514742750683</v>
       </c>
       <c r="C34" t="n">
-        <v>392.0201325405893</v>
+        <v>496.3514742750683</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1225.250429569879</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>936.1217907834367</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V34" t="n">
-        <v>681.4373025775499</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W34" t="n">
-        <v>392.0201325405893</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X34" t="n">
-        <v>392.0201325405893</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y34" t="n">
-        <v>392.0201325405893</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="35">
@@ -6932,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>2745.388427942954</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>2975.351533811302</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M36" t="n">
-        <v>3295.686853341004</v>
+        <v>1143.791854554973</v>
       </c>
       <c r="N36" t="n">
-        <v>4100.098431605154</v>
+        <v>1948.203432819124</v>
       </c>
       <c r="O36" t="n">
-        <v>4271.159392765216</v>
+        <v>2196.956846903086</v>
       </c>
       <c r="P36" t="n">
-        <v>4791.460014500963</v>
+        <v>2379.600324516437</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3843.400005177273</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="C37" t="n">
-        <v>3843.400005177273</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D37" t="n">
-        <v>3843.400005177273</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E37" t="n">
-        <v>3721.107993746785</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>3721.107993746785</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="U37" t="n">
-        <v>4326.074044281177</v>
+        <v>4260.730820705227</v>
       </c>
       <c r="V37" t="n">
-        <v>4071.38955607529</v>
+        <v>4046.602296948364</v>
       </c>
       <c r="W37" t="n">
-        <v>4071.38955607529</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="X37" t="n">
-        <v>3843.400005177273</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="Y37" t="n">
-        <v>3843.400005177273</v>
+        <v>3757.185126911404</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,19 +7259,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>578.3080734880472</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1346.676219880509</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880509</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4033.668348055211</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C40" t="n">
-        <v>4033.668348055211</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>4033.668348055211</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>3885.755254472818</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974908</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>4543.878097235702</v>
+        <v>946.9509829168464</v>
       </c>
       <c r="W40" t="n">
-        <v>4254.460927198741</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X40" t="n">
-        <v>4254.460927198741</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y40" t="n">
-        <v>4033.668348055211</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,13 +7435,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>698.9859206278418</v>
+        <v>783.6111751439973</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.321240157544</v>
+        <v>1103.946494673699</v>
       </c>
       <c r="N42" t="n">
-        <v>1823.732818421694</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O42" t="n">
         <v>2103.272883640391</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.6725486937866</v>
+        <v>3774.981524342494</v>
       </c>
       <c r="C43" t="n">
-        <v>324.6725486937866</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="D43" t="n">
-        <v>324.6725486937866</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W43" t="n">
-        <v>955.1031435655738</v>
+        <v>4177.422568316264</v>
       </c>
       <c r="X43" t="n">
-        <v>727.1135926675564</v>
+        <v>4177.422568316264</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.3210135240263</v>
+        <v>3956.629989172734</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7728,22 +7730,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>836.4717212750119</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M45" t="n">
-        <v>836.4717212750119</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.809122337732</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.8631874464246</v>
+        <v>3800.532462543054</v>
       </c>
       <c r="C46" t="n">
-        <v>376.9270045185177</v>
+        <v>3631.596279615148</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185177</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>1210.185691380569</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U46" t="n">
-        <v>1210.185691380569</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V46" t="n">
-        <v>955.5012031746817</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W46" t="n">
-        <v>955.5012031746817</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X46" t="n">
-        <v>727.5116522766643</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.5116522766643</v>
+        <v>3982.180927373294</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>192.5352881821131</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>304.1240085372005</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>442.7349347280635</v>
+        <v>428.7482360003775</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>94.10713288361984</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>182.6040143756159</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>228.4933643246447</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9734,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>334.896137312547</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>70.07968627830854</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>209.464191076085</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>231.9657991952066</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>120.7393984622218</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>75.2688311464434</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>68.00967868100524</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.7859439523366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>180.3379749000271</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>60.59819117803283</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>43.43497958082882</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>84.80443103149419</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>26.93116351641925</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>25.51112568331592</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.2791619037318</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>26.90597356734406</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>145.7203085977264</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>9.312727518780918</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>148.539188463849</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>25.36487133038611</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>40.15040480453348</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25555,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25606,13 +25608,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>246.2160946904191</v>
+        <v>13.57717094657883</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>31.67230544967546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>139.3580371313275</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>144.3925646401027</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>133.6250976564321</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="N2" t="n">
+        <v>645197.9485672188</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672193</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758474</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759826</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905759184</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="M4" t="n">
-        <v>787.7936905759512</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="O4" t="n">
-        <v>787.7936905759236</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,28 +26487,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205394</v>
+        <v>-134526.6363205392</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940048</v>
+        <v>455441.2428940049</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.242894005</v>
+        <v>455441.2428940051</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103046</v>
+        <v>27262.79245103044</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.828927927</v>
+        <v>552422.8289279271</v>
       </c>
       <c r="G6" t="n">
         <v>552422.8289279268</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279267</v>
+        <v>552422.8289279272</v>
       </c>
       <c r="I6" t="n">
+        <v>552422.8289279271</v>
+      </c>
+      <c r="J6" t="n">
+        <v>375999.6097353341</v>
+      </c>
+      <c r="K6" t="n">
+        <v>552422.8289279266</v>
+      </c>
+      <c r="L6" t="n">
+        <v>552422.8289279266</v>
+      </c>
+      <c r="M6" t="n">
+        <v>417621.8136940895</v>
+      </c>
+      <c r="N6" t="n">
+        <v>552422.8289279264</v>
+      </c>
+      <c r="O6" t="n">
+        <v>552422.8289279266</v>
+      </c>
+      <c r="P6" t="n">
         <v>552422.828927927</v>
-      </c>
-      <c r="J6" t="n">
-        <v>375999.6097353339</v>
-      </c>
-      <c r="K6" t="n">
-        <v>552422.828927927</v>
-      </c>
-      <c r="L6" t="n">
-        <v>552422.8289279268</v>
-      </c>
-      <c r="M6" t="n">
-        <v>417621.8136940892</v>
-      </c>
-      <c r="N6" t="n">
-        <v>552422.828927927</v>
-      </c>
-      <c r="O6" t="n">
-        <v>552422.828927927</v>
-      </c>
-      <c r="P6" t="n">
-        <v>552422.8289279267</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28530774084281e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,10 +26755,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>39.53802575917729</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>202.5391962343695</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>69.82509465204406</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>112.3828552686948</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>41.13433373759028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>250.3458772652727</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>108.0645161737213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.7458196030339</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>57.62899917127788</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>46.78975973851919</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>185.1914935374186</v>
       </c>
       <c r="W10" t="n">
-        <v>11.05637510633818</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.303787853623013e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29551,7 +29553,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30457,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,19 +32083,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32315,19 +32317,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>143.3647573196099</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,28 +32560,28 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>168.9387261055271</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>323.0126678614004</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,28 +33025,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>333.9765045008506</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33260,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>343.3388808776675</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>185.2928442992126</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33442,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33503,22 +33505,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>203.9579359408715</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33734,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>315.3850941010719</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>176.3420427741125</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33892,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33913,7 +33915,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
@@ -33977,25 +33979,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>208.1179754252732</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34208,13 +34210,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>166.4163793991542</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34232,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34372,7 +34374,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34448,25 +34450,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>255.3704499243454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>34.59579029910191</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>511.2174234687252</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>775.9295081260765</v>
+        <v>761.9428093983904</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35963,25 +35965,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>269.9885553578295</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>301.2005478151445</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>44.04963459574176</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>94.5189569103145</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>492.5097559335087</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>507.5010290870073</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>645.3205143630132</v>
+        <v>191.8424705788323</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>204.7845010977933</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>533.2935065594328</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2439014644565</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>380.5040633287747</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>172.7888496566275</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>246.4375564239401</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37625,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>70.9098112962108</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.1186376854935</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>481.2235041512309</v>
+        <v>398.7023449227391</v>
       </c>
       <c r="M42" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -38020,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>603.3711121845656</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>285.861865131387</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3324225.811303872</v>
+        <v>3317208.796412161</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687188.4205003544</v>
+        <v>580480.1600276533</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8468878.828310512</v>
+        <v>8468878.82831051</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>25.82079795844256</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>13.90912412328831</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>88.1842118287388</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.8990189732829</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>98.89509145214025</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>290.5286403308938</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.83883374906087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>322.9413409399498</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>66.94614978640935</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710057</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>176.8688121773846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>58.1782444919636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.60579433720712</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>88.01728184017952</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>81.6891374318834</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>137.6122649567898</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>37.36342890031289</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>95.24383643285914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>79.98934679131069</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.3027454994314</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>161.817511795895</v>
       </c>
       <c r="V37" t="n">
-        <v>211.9872385192945</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>238.5604723772492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>147.1649612052635</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>22.10100382327489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.7382812066351</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>978.649099990522</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>978.649099990522</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2628.070781222162</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2374.308995860253</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2043.246108516683</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1690.477453246569</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1690.477453246569</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1300.338121270757</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="3">
@@ -4418,7 +4418,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4436,7 +4436,7 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
         <v>190.2718927217162</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>338.1849863041093</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.224209387568</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1781.224209387568</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.4350995402963</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1314.574431516108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>924.4350995402963</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>368.8844281164666</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>512.3599521189926</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>436.8967109626376</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>1050.793780719526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5235,13 +5235,13 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407766</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5266,43 +5266,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>674.4285624571609</v>
+        <v>1215.575286030345</v>
       </c>
       <c r="M15" t="n">
-        <v>994.7638819868627</v>
+        <v>1983.943432422806</v>
       </c>
       <c r="N15" t="n">
-        <v>1749.087263291269</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O15" t="n">
-        <v>2418.551024593929</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>588.5027791527954</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>588.5027791527954</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963255</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X16" t="n">
-        <v>809.2953582963255</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.5027791527954</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,49 +5500,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2375.989236263799</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>2989.886306020688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>3758.254452413149</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>4562.6660306773</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>4562.6660306773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>2459.855719156279</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>2689.818825024628</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.18697141709</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>3802.707627054708</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>4472.171388357368</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.4545387878463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>484.4545387878463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293938</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>933.2366688293938</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>705.2471179313765</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>484.4545387878463</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,22 +6065,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1609.589088435861</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.6213191924219</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C25" t="n">
-        <v>326.6213191924219</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D25" t="n">
-        <v>326.6213191924219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>326.6213191924219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7313716945115</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,10 +6165,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
@@ -6180,19 +6180,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333287</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273998</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904392</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="X25" t="n">
-        <v>326.6213191924219</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y25" t="n">
-        <v>326.6213191924219</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1838454192343</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1050.107891292278</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1854.519469556429</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.6648329070714</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>948.1058768808413</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>948.1058768808413</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.3132977373111</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,52 +6463,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6548,13 +6548,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1031.449480746876</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>844.0280401273991</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>763.2307201361762</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.194529922532</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1884.71518556015</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.3514742750683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>496.3514742750683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>898.7925182488382</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>898.7925182488382</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>898.7925182488382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>677.999939105308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>836.4717212750119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1143.791854554973</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N36" t="n">
-        <v>1948.203432819124</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>2196.956846903086</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.600324516437</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491669</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.859459491669</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705227</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V37" t="n">
-        <v>4046.602296948364</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W37" t="n">
-        <v>3757.185126911404</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>3757.185126911404</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>946.9509829168464</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>657.5338128798858</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>429.5442619818684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>783.6111751439973</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.946494673699</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3774.981524342494</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>3606.045341414587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>3606.045341414587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>3606.045341414587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>4326.074044281177</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>4326.074044281177</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>4177.422568316264</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X43" t="n">
-        <v>4177.422568316264</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y43" t="n">
-        <v>3956.629989172734</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.405785702849</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1862.817363967</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3800.532462543054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3631.596279615148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3481.479640202812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3481.479640202812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3481.479640202812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>4236.865415579181</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>3982.180927373294</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>3982.180927373294</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>3982.180927373294</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3982.180927373294</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>192.5352881821131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7482360003775</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>94.10713288361984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>228.4933643246447</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,22 +10436,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>70.07968627830854</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.2688311464434</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>121.6537356899737</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>68.00967868100524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>60.59819117803283</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>84.80443103149419</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>148.6250874417875</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>142.4685512816244</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>191.2791619037318</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.7203085977264</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.312727518780918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>124.4198406026824</v>
       </c>
       <c r="V37" t="n">
-        <v>40.15040480453348</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>13.57717094657883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>139.3580371313275</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>144.3925646401027</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672191</v>
       </c>
-      <c r="F2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="G2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672195</v>
@@ -26340,19 +26340,19 @@
         <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="N2" t="n">
         <v>645197.9485672191</v>
       </c>
-      <c r="L2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672188</v>
-      </c>
       <c r="O2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672194</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759543</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26444,13 +26444,13 @@
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759184</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205392</v>
+        <v>-134526.6363205395</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940049</v>
+        <v>455441.2428940051</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940051</v>
+        <v>455441.2428940048</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103044</v>
+        <v>26288.20119130893</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279271</v>
+        <v>551448.2376682049</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682049</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279272</v>
+        <v>551448.2376682052</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279271</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353341</v>
+        <v>375025.0184756122</v>
       </c>
       <c r="K6" t="n">
-        <v>552422.8289279266</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="L6" t="n">
-        <v>552422.8289279266</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="M6" t="n">
-        <v>417621.8136940895</v>
+        <v>416647.2224343682</v>
       </c>
       <c r="N6" t="n">
-        <v>552422.8289279264</v>
+        <v>551448.2376682049</v>
       </c>
       <c r="O6" t="n">
-        <v>552422.8289279266</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="P6" t="n">
-        <v>552422.828927927</v>
+        <v>551448.2376682053</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>381.0552477832689</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>202.5391962343695</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>91.6477683531985</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3828552686948</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>250.3458772652727</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>79.2024603475752</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.7458196030339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>46.78975973851919</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>185.1914935374186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304393</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31840,28 +31840,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>314.3268865705405</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,25 +32785,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>168.9387261055271</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,28 +33034,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>333.9765045008506</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33268,16 +33268,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>185.2928442992126</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,13 +33508,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.3420427741125</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33973,10 +33973,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33985,7 +33985,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>208.1179754252732</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,25 +34210,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4163793991542</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>34.59579029910191</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>242.1053372686589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>343.1107267700523</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>546.6128520941255</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>761.9428093983904</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>301.2005478151445</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>94.5189569103145</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>492.5097559335087</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>191.8424705788323</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>533.2935065594328</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,19 +37156,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>380.5040633287747</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>246.4375564239401</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37633,13 +37633,13 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>556.1186376854935</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>398.7023449227391</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>285.861865131387</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3317208.796412161</v>
+        <v>3322148.059261193</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580480.1600276533</v>
+        <v>553845.9560954308</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.82079795844256</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>1.178315471687742</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.1842118287388</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>67.17737911999787</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.0502377560822</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.5286403308938</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>138.3038958997682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>189.8574674831951</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052001</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.1782444919636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>91.78533898600394</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>169.7438101404427</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.562624396425115</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>137.6122649567898</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.36342890031289</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>85.61971447354418</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>161.817511795895</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.3419076393841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1705.877315537684</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1336.914798597272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>978.649099990522</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>978.649099990522</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.958873370053</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2519.781385684223</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2301.146718656286</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2092.477155601806</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1507.115530902032</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1121.327278303787</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>710.3413735141798</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>292.3775654123667</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.685817956713</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4661,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>1365.680170394969</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>996.7176534545576</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>638.4519548478072</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>252.663702249563</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>245.7182015003595</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>368.8844281164666</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121384</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M12" t="n">
-        <v>417.5524109899876</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,46 +5263,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1215.575286030345</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
         <v>1983.943432422806</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>917.0640635030469</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>917.0640635030469</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>766.9474240907111</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W16" t="n">
-        <v>755.183133481126</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="X16" t="n">
-        <v>527.1935825831087</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="Y16" t="n">
-        <v>306.4010034395785</v>
+        <v>1098.712528333287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626369</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>1570.408513028025</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,34 +5767,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1248.838879284587</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>1248.838879284587</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>1248.838879284587</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1248.838879284587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1028.046300141057</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,10 +6211,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.2811958984813</v>
+        <v>333.8182909469086</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X28" t="n">
-        <v>954.8146123150548</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.0220331715246</v>
+        <v>333.8182909469086</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6463,52 +6463,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6791,7 +6791,7 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,10 +6958,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
         <v>1138.699705022018</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7177,16 +7177,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7368,10 +7368,10 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W43" t="n">
-        <v>1387.841167119728</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X43" t="n">
-        <v>1387.841167119728</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,16 +7730,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>648.0342195052083</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7836,16 +7836,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -10442,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.6537356899737</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>54.64862366056524</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165207</v>
       </c>
     </row>
     <row r="20">
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>192.3581855871781</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>148.6250874417875</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.4685512816244</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>81.62710662508366</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>124.4198406026824</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.2427457127107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="14">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672191</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="K2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672191</v>
@@ -26355,7 +26355,7 @@
         <v>645197.9485672195</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759543</v>
+        <v>787.7936905758056</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905757878</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757995</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757902</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905759104</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205395</v>
+        <v>-134526.6363205394</v>
       </c>
       <c r="C6" t="n">
+        <v>455441.2428940049</v>
+      </c>
+      <c r="D6" t="n">
         <v>455441.2428940051</v>
       </c>
-      <c r="D6" t="n">
-        <v>455441.2428940048</v>
-      </c>
       <c r="E6" t="n">
-        <v>26288.20119130893</v>
+        <v>27165.33332505841</v>
       </c>
       <c r="F6" t="n">
-        <v>551448.2376682049</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="G6" t="n">
-        <v>551448.2376682049</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="H6" t="n">
-        <v>551448.2376682052</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="I6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="J6" t="n">
-        <v>375025.0184756122</v>
+        <v>375902.1506093621</v>
       </c>
       <c r="K6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019552</v>
       </c>
       <c r="L6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="M6" t="n">
-        <v>416647.2224343682</v>
+        <v>417524.3545681174</v>
       </c>
       <c r="N6" t="n">
-        <v>551448.2376682049</v>
+        <v>552325.3698019545</v>
       </c>
       <c r="O6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="P6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019547</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26770,7 +26770,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.0552477832689</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.30008710312397</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.6477683531985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>219.1044951219799</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>87.87253500827492</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.2024603475752</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>226.9689958712394</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>223.9267025375999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28818,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>115.4815392304393</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31852,25 +31852,25 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4309478731437</v>
+        <v>380.4309478731432</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>314.3268865705405</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>379.0732128071258</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32098,16 +32098,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,22 +32311,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318319</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>129.3623873097339</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,22 +32548,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>380.6284621420188</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,22 +32785,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.0697047810465</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33511,7 +33511,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>261.7559250855784</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>242.1053372686589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>728.431610133364</v>
+        <v>728.4316101333634</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6128520941255</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>702.6442426351074</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700515</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>452.9334171377155</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>704.1994919700004</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>388.379723123798</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
